--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aima\manpower-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5384CF73-28E3-417E-82EC-0A25200CA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D78DBB-12E5-4EF7-B9EE-3CFEAA9C42B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4170" windowWidth="15375" windowHeight="7995" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1860" windowWidth="15375" windowHeight="7995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
   <si>
     <t>WorkerID</t>
   </si>
@@ -34,37 +34,73 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Worker_0</t>
+  </si>
+  <si>
     <t>Alice</t>
   </si>
   <si>
+    <t>Worker_1</t>
+  </si>
+  <si>
     <t>Bob</t>
   </si>
   <si>
+    <t>Worker_2</t>
+  </si>
+  <si>
     <t>Charlie</t>
   </si>
   <si>
+    <t>Worker_3</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
+    <t>Worker_4</t>
+  </si>
+  <si>
     <t>Emma</t>
   </si>
   <si>
+    <t>Worker_5</t>
+  </si>
+  <si>
     <t>Fiona</t>
   </si>
   <si>
+    <t>Worker_6</t>
+  </si>
+  <si>
     <t>George</t>
   </si>
   <si>
+    <t>Worker_7</t>
+  </si>
+  <si>
     <t>Hannah</t>
   </si>
   <si>
+    <t>Worker_8</t>
+  </si>
+  <si>
     <t>Ian</t>
   </si>
   <si>
+    <t>Worker_9</t>
+  </si>
+  <si>
     <t>Julia</t>
   </si>
   <si>
+    <t>Worker_10</t>
+  </si>
+  <si>
     <t>Kevin</t>
+  </si>
+  <si>
+    <t>Worker_11</t>
   </si>
   <si>
     <t>Laura</t>
@@ -546,9 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -565,95 +599,95 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -671,107 +705,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -783,9 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -794,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,7 +863,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -851,7 +883,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -871,7 +903,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -891,7 +923,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -911,7 +943,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -931,7 +963,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -951,7 +983,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -971,7 +1003,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -991,7 +1023,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1011,7 +1043,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1031,7 +1063,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1058,33 +1090,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1092,7 +1124,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1100,7 +1132,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1108,7 +1140,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1116,7 +1148,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1124,7 +1156,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1135,7 +1167,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1143,7 +1175,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1154,7 +1186,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1162,7 +1194,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1170,7 +1202,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1178,7 +1210,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1189,7 +1221,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1197,7 +1229,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1208,7 +1240,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1216,7 +1248,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1224,7 +1256,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1235,7 +1267,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1243,7 +1275,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1254,7 +1286,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1269,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,167 +1326,167 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1472,15 +1504,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1488,7 +1520,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -1496,7 +1528,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1504,7 +1536,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1512,7 +1544,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1520,7 +1552,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1528,7 +1560,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1536,7 +1568,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1544,7 +1576,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1552,7 +1584,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1560,7 +1592,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1568,7 +1600,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1576,7 +1608,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1584,7 +1616,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1592,7 +1624,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -1600,7 +1632,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1608,7 +1640,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1616,7 +1648,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1624,7 +1656,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1632,7 +1664,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -1653,15 +1685,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1669,7 +1701,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1677,7 +1709,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1685,7 +1717,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1693,7 +1725,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1701,7 +1733,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1709,7 +1741,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1717,7 +1749,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1725,7 +1757,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1733,7 +1765,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1741,7 +1773,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1749,7 +1781,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1757,7 +1789,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1765,7 +1797,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1773,7 +1805,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1781,7 +1813,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1789,7 +1821,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1797,7 +1829,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1805,7 +1837,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1813,7 +1845,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>4</v>
